--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650DCABD-F74A-49C5-A754-5C673F8583FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C6C35-36F7-4DA7-BA84-D74D7596FB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpDecrease_Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpDecrease_Rate</t>
+    <t>SpDecreaseRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,14 +469,6 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
         <v>0.8</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C6C35-36F7-4DA7-BA84-D74D7596FB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688ACD7-6B4A-4360-B0A4-A41B634C71CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalConstantFloatTable" sheetId="2" r:id="rId2"/>
+    <sheet name="DamageRateTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,16 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GlobalConstant_MaxRank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +47,73 @@
   </si>
   <si>
     <t>SpDecreaseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStageLevel</t>
+  </si>
+  <si>
+    <t>MaxPowerLevel</t>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>number|Int</t>
+  </si>
+  <si>
+    <t>Ricochet</t>
+  </si>
+  <si>
+    <t>1,0.7</t>
+  </si>
+  <si>
+    <t>1,0.7,0.49</t>
+  </si>
+  <si>
+    <t>1,0.7,0.2</t>
+  </si>
+  <si>
+    <t>BounceWallQuad</t>
+  </si>
+  <si>
+    <t>1,0.5</t>
+  </si>
+  <si>
+    <t>1,0.5,0.25</t>
+  </si>
+  <si>
+    <t>MonsterThrough</t>
+  </si>
+  <si>
+    <t>1,0.66</t>
+  </si>
+  <si>
+    <t>1,0.66,0.3</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>1,0.9</t>
+  </si>
+  <si>
+    <t>1,0.9,0.81</t>
+  </si>
+  <si>
+    <t>1.0.9,0.72</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>CircularSector</t>
+  </si>
+  <si>
+    <t>WallThrough</t>
+  </si>
+  <si>
+    <t>rate|Float!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,6 +478,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -428,15 +533,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -445,31 +550,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688ACD7-6B4A-4360-B0A4-A41B634C71CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21B997-E21D-4A4A-A6AA-7CF0DC1EF2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,9 @@
   <si>
     <t>rate|Float!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultCriticalDamageRate</t>
   </si>
 </sst>
 </file>
@@ -480,6 +483,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B3"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -492,47 +536,6 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -542,6 +545,14 @@
       </c>
       <c r="B2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21B997-E21D-4A4A-A6AA-7CF0DC1EF2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C850142-02F6-4929-A44E-2011369C3090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C850142-02F6-4929-A44E-2011369C3090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00397276-B629-4122-B2C6-19BE78AFE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalConstantFloatTable" sheetId="2" r:id="rId2"/>
-    <sheet name="DamageRateTable" sheetId="3" r:id="rId3"/>
+    <sheet name="GlobalConstantStringTable" sheetId="4" r:id="rId3"/>
+    <sheet name="DamageRateTable" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +120,33 @@
   </si>
   <si>
     <t>DefaultCriticalDamageRate</t>
+  </si>
+  <si>
+    <t>value|String</t>
+  </si>
+  <si>
+    <t>DropHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>LevelUpHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>SwapHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceMagicBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceMachineBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceNatureBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceQigongBuffAffectorValueId</t>
   </si>
 </sst>
 </file>
@@ -524,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -562,6 +591,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00397276-B629-4122-B2C6-19BE78AFE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5BC9-8A8C-42C3-B020-72FFEA32CCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,86 +67,79 @@
     <t>Ricochet</t>
   </si>
   <si>
-    <t>1,0.7</t>
-  </si>
-  <si>
-    <t>1,0.7,0.49</t>
-  </si>
-  <si>
-    <t>1,0.7,0.2</t>
-  </si>
-  <si>
     <t>BounceWallQuad</t>
   </si>
   <si>
-    <t>1,0.5</t>
-  </si>
-  <si>
-    <t>1,0.5,0.25</t>
-  </si>
-  <si>
     <t>MonsterThrough</t>
   </si>
   <si>
-    <t>1,0.66</t>
-  </si>
-  <si>
-    <t>1,0.66,0.3</t>
-  </si>
-  <si>
     <t>Repeat</t>
   </si>
   <si>
-    <t>1,0.9</t>
-  </si>
-  <si>
-    <t>1,0.9,0.81</t>
-  </si>
-  <si>
-    <t>1.0.9,0.72</t>
-  </si>
-  <si>
     <t>Parallel</t>
   </si>
   <si>
-    <t>CircularSector</t>
-  </si>
-  <si>
-    <t>WallThrough</t>
+    <t>DefaultCriticalDamageRate</t>
+  </si>
+  <si>
+    <t>value|String</t>
+  </si>
+  <si>
+    <t>DropHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>LevelUpHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>SwapHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceHealAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceMagicBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceMachineBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceNatureBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>PowerSourceQigongBuffAffectorValueId</t>
   </si>
   <si>
     <t>rate|Float!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultCriticalDamageRate</t>
-  </si>
-  <si>
-    <t>value|String</t>
-  </si>
-  <si>
-    <t>DropHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>LevelUpHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>SwapHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceMagicBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceMachineBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceNatureBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceQigongBuffAffectorValueId</t>
+  </si>
+  <si>
+    <t>1, 0.7</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.49</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.49, 0.23</t>
+  </si>
+  <si>
+    <t>1, 0.5</t>
+  </si>
+  <si>
+    <t>1, 0.5, 0.25</t>
+  </si>
+  <si>
+    <t>0.9, 0.66</t>
+  </si>
+  <si>
+    <t>1, 0.66, 0.3</t>
+  </si>
+  <si>
+    <t>1, 0.9</t>
+  </si>
+  <si>
+    <t>1, 0.9, 0.81</t>
+  </si>
+  <si>
+    <t>1, 0.9, 0.72, 0.5</t>
   </si>
 </sst>
 </file>
@@ -578,7 +571,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -594,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -606,47 +599,47 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +650,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,89 +703,89 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -800,32 +796,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
         <v>0.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5BC9-8A8C-42C3-B020-72FFEA32CCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A51DB8-33C0-4230-AB3D-E68573AA161C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>1, 0.9, 0.72, 0.5</t>
+  </si>
+  <si>
+    <t>CollisionDamageInterval</t>
   </si>
 </sst>
 </file>
@@ -544,9 +547,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,6 +580,14 @@
       </c>
       <c r="B3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A51DB8-33C0-4230-AB3D-E68573AA161C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD422BAB-0276-47FA-A984-7E8564A56FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-16050" yWindow="3825" windowWidth="14025" windowHeight="10680" firstSheet="1" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,30 +85,6 @@
     <t>value|String</t>
   </si>
   <si>
-    <t>DropHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>LevelUpHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>SwapHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceHealAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceMagicBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceMachineBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceNatureBuffAffectorValueId</t>
-  </si>
-  <si>
-    <t>PowerSourceQigongBuffAffectorValueId</t>
-  </si>
-  <si>
     <t>rate|Float!</t>
   </si>
   <si>
@@ -143,6 +119,13 @@
   </si>
   <si>
     <t>CollisionDamageInterval</t>
+  </si>
+  <si>
+    <t>MaxHpBetter</t>
+  </si>
+  <si>
+    <t>ExclusiveLevelPackIdAfterMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +567,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -598,13 +581,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -617,42 +601,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -705,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -749,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -760,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -771,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD422BAB-0276-47FA-A984-7E8564A56FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E868D29-7B95-4A12-B260-BB284A45AEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16050" yWindow="3825" windowWidth="14025" windowHeight="10680" firstSheet="1" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpDecreaseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxStageLevel</t>
   </si>
   <si>
@@ -126,6 +118,27 @@
   <si>
     <t>ExclusiveLevelPackIdAfterMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value|Float</t>
+  </si>
+  <si>
+    <t>SpDecreaseRate</t>
+  </si>
+  <si>
+    <t>DropHeal</t>
+  </si>
+  <si>
+    <t>LevelUpHeal</t>
+  </si>
+  <si>
+    <t>SwapHeal</t>
+  </si>
+  <si>
+    <t>PowerSourceHeal</t>
+  </si>
+  <si>
+    <t>PowerSourceSpHeal</t>
   </si>
 </sst>
 </file>
@@ -503,12 +516,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -516,7 +529,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -530,9 +543,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -543,15 +556,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -559,7 +572,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -567,10 +580,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -593,18 +646,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -617,9 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -629,128 +680,128 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -761,7 +812,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E868D29-7B95-4A12-B260-BB284A45AEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE9410-7EE3-4748-9983-9ACEBEA6D3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>PowerSourceSpHeal</t>
+  </si>
+  <si>
+    <t>CollisionDamageRate</t>
   </si>
 </sst>
 </file>
@@ -543,11 +546,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -588,41 +589,49 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.25</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE9410-7EE3-4748-9983-9ACEBEA6D3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7F0FD-1C19-44C3-B2BB-78D53EFD291A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -142,6 +134,15 @@
   </si>
   <si>
     <t>CollisionDamageRate</t>
+  </si>
+  <si>
+    <t>value|Int</t>
+  </si>
+  <si>
+    <t>PurifyStartChapter</t>
+  </si>
+  <si>
+    <t>ChaosChapterLimit</t>
   </si>
 </sst>
 </file>
@@ -505,7 +506,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,64 +576,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -581,7 +600,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -589,7 +608,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -597,7 +616,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -605,7 +624,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -613,7 +632,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -621,7 +640,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -629,7 +648,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0.25</v>
@@ -655,18 +674,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -689,128 +708,128 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -821,7 +840,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7F0FD-1C19-44C3-B2BB-78D53EFD291A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2C16F-1F38-49E8-8D31-B5DFBEC7D90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>ChaosChapterLimit</t>
+  </si>
+  <si>
+    <t>LnHpConstant1</t>
+  </si>
+  <si>
+    <t>LnHpConstant2</t>
+  </si>
+  <si>
+    <t>LnAtkConstant1</t>
+  </si>
+  <si>
+    <t>LnAtkConstant2</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -565,9 +577,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -584,73 +596,105 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>73.989103869999994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>-293.30309269999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>49.326069250000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>-127.1549435</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>0.25</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2C16F-1F38-49E8-8D31-B5DFBEC7D90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4258E294-B578-425D-B33A-BEFF6D9561BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -520,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -550,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4258E294-B578-425D-B33A-BEFF6D9561BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB78F1-DEEE-4E25-8DB2-C8A002A87576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -520,6 +520,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B5"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,63 +589,6 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB78F1-DEEE-4E25-8DB2-C8A002A87576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E42C2-898D-461B-B65B-27CF34DB1FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -108,53 +108,58 @@
     <t>MaxHpBetter</t>
   </si>
   <si>
+    <t>value|Float</t>
+  </si>
+  <si>
+    <t>SpDecreaseRate</t>
+  </si>
+  <si>
+    <t>DropHeal</t>
+  </si>
+  <si>
+    <t>LevelUpHeal</t>
+  </si>
+  <si>
+    <t>SwapHeal</t>
+  </si>
+  <si>
+    <t>PowerSourceHeal</t>
+  </si>
+  <si>
+    <t>PowerSourceSpHeal</t>
+  </si>
+  <si>
+    <t>CollisionDamageRate</t>
+  </si>
+  <si>
+    <t>value|Int</t>
+  </si>
+  <si>
+    <t>PurifyStartChapter</t>
+  </si>
+  <si>
+    <t>ChaosChapterLimit</t>
+  </si>
+  <si>
+    <t>LnHpConstant1</t>
+  </si>
+  <si>
+    <t>LnHpConstant2</t>
+  </si>
+  <si>
+    <t>LnAtkConstant1</t>
+  </si>
+  <si>
+    <t>LnAtkConstant2</t>
+  </si>
+  <si>
     <t>ExclusiveLevelPackIdAfterMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value|Float</t>
-  </si>
-  <si>
-    <t>SpDecreaseRate</t>
-  </si>
-  <si>
-    <t>DropHeal</t>
-  </si>
-  <si>
-    <t>LevelUpHeal</t>
-  </si>
-  <si>
-    <t>SwapHeal</t>
-  </si>
-  <si>
-    <t>PowerSourceHeal</t>
-  </si>
-  <si>
-    <t>PowerSourceSpHeal</t>
-  </si>
-  <si>
-    <t>CollisionDamageRate</t>
-  </si>
-  <si>
-    <t>value|Int</t>
-  </si>
-  <si>
-    <t>PurifyStartChapter</t>
-  </si>
-  <si>
-    <t>ChaosChapterLimit</t>
-  </si>
-  <si>
-    <t>LnHpConstant1</t>
-  </si>
-  <si>
-    <t>LnHpConstant2</t>
-  </si>
-  <si>
-    <t>LnAtkConstant1</t>
-  </si>
-  <si>
-    <t>LnAtkConstant2</t>
+  </si>
+  <si>
+    <t>LanguageList</t>
+  </si>
+  <si>
+    <t>KOR,ENG</t>
   </si>
 </sst>
 </file>
@@ -532,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,7 +558,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -561,7 +566,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -577,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -589,12 +594,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>73.989103869999994</v>
@@ -602,7 +607,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>-293.30309269999998</v>
@@ -610,7 +615,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>49.326069250000003</v>
@@ -618,7 +623,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>-127.1549435</v>
@@ -626,7 +631,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -650,7 +655,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -658,7 +663,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -666,7 +671,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -674,7 +679,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.4</v>
@@ -682,7 +687,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -690,7 +695,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -704,9 +709,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -724,10 +729,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E42C2-898D-461B-B65B-27CF34DB1FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39069B6-B497-4032-B20A-3E6A05A2C0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -634,7 +634,7 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39069B6-B497-4032-B20A-3E6A05A2C0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA705E2-7838-4E0B-A0A1-22E76818F346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>KOR,ENG</t>
+  </si>
+  <si>
+    <t>overrideActorId|String</t>
+  </si>
+  <si>
+    <t>Actor001</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -751,9 +757,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -761,7 +767,7 @@
     <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -783,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -794,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -805,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -816,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -827,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -838,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -849,63 +858,92 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>0.5625</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA705E2-7838-4E0B-A0A1-22E76818F346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A098B7-794B-40C8-9CAD-2EA9BE1E2750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A098B7-794B-40C8-9CAD-2EA9BE1E2750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F1058-27C5-4F6E-AF02-83DAFD2D03B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -105,9 +105,6 @@
     <t>CollisionDamageInterval</t>
   </si>
   <si>
-    <t>MaxHpBetter</t>
-  </si>
-  <si>
     <t>value|Float</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>LnAtkConstant2</t>
-  </si>
-  <si>
-    <t>ExclusiveLevelPackIdAfterMax</t>
   </si>
   <si>
     <t>LanguageList</t>
@@ -543,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +558,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -572,7 +566,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -588,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -600,12 +594,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>73.989103869999994</v>
@@ -613,7 +607,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>-293.30309269999998</v>
@@ -621,7 +615,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>49.326069250000003</v>
@@ -629,7 +623,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>-127.1549435</v>
@@ -637,7 +631,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -661,7 +655,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -669,7 +663,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -677,7 +671,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -685,7 +679,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0.4</v>
@@ -693,7 +687,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -715,9 +709,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -735,18 +729,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,7 +855,7 @@
         <v>0.9</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,7 +869,7 @@
         <v>0.8</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F1058-27C5-4F6E-AF02-83DAFD2D03B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20734E-8E86-4317-9C36-03567E9FD84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>PowerSourceSpHeal</t>
-  </si>
-  <si>
-    <t>CollisionDamageRate</t>
   </si>
   <si>
     <t>value|Int</t>
@@ -537,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +555,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -566,7 +563,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -580,9 +577,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,7 +596,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>73.989103869999994</v>
@@ -607,7 +604,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>-293.30309269999998</v>
@@ -615,7 +612,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>49.326069250000003</v>
@@ -623,7 +620,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-127.1549435</v>
@@ -655,49 +652,41 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -729,10 +718,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -855,7 +844,7 @@
         <v>0.9</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,7 +858,7 @@
         <v>0.8</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20734E-8E86-4317-9C36-03567E9FD84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51407C6B-D379-46E5-9211-DE5A0A748C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Actor001</t>
+  </si>
+  <si>
+    <t>MinimumCriticalRate</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,57 +639,65 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51407C6B-D379-46E5-9211-DE5A0A748C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8130E-72A5-4D1D-A4CC-2B4D80110121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8130E-72A5-4D1D-A4CC-2B4D80110121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4C716-019F-442B-AFD8-6F0F16ACAA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -87,12 +87,6 @@
     <t>1, 0.5, 0.25</t>
   </si>
   <si>
-    <t>0.9, 0.66</t>
-  </si>
-  <si>
-    <t>1, 0.66, 0.3</t>
-  </si>
-  <si>
     <t>1, 0.9</t>
   </si>
   <si>
@@ -160,6 +154,24 @@
   </si>
   <si>
     <t>MinimumCriticalRate</t>
+  </si>
+  <si>
+    <t>Actor025</t>
+  </si>
+  <si>
+    <t>Actor021</t>
+  </si>
+  <si>
+    <t>1,0.5</t>
+  </si>
+  <si>
+    <t>1,0.66,0.33</t>
+  </si>
+  <si>
+    <t>Actor019</t>
+  </si>
+  <si>
+    <t>Actor011</t>
   </si>
 </sst>
 </file>
@@ -537,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +570,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -566,7 +578,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -582,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -594,12 +606,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>73.989103869999994</v>
@@ -607,7 +619,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>-293.30309269999998</v>
@@ -615,7 +627,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>49.326069250000003</v>
@@ -623,7 +635,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>-127.1549435</v>
@@ -631,7 +643,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -639,7 +651,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1.4999999999999999E-2</v>
@@ -655,7 +667,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -663,7 +675,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -671,7 +683,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -679,7 +691,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.4</v>
@@ -687,7 +699,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -695,7 +707,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -729,10 +741,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -743,9 +755,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -764,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -777,6 +789,9 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -788,6 +803,9 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -799,6 +817,9 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -810,6 +831,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -821,16 +845,22 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,38 +868,41 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0.9</v>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>0.8</v>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,54 +910,41 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C13">
         <v>0.5625</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4C716-019F-442B-AFD8-6F0F16ACAA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EE5F6-838A-459F-BF30-8B760109614C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -646,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EE5F6-838A-459F-BF30-8B760109614C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA452590-FBEC-4BB3-8FFF-13C504A3D46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Actor011</t>
+  </si>
+  <si>
+    <t>MaxTutorialStage</t>
   </si>
 </sst>
 </file>
@@ -535,9 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -582,6 +587,14 @@
       </c>
       <c r="B5">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA452590-FBEC-4BB3-8FFF-13C504A3D46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA6FBA-1409-4218-AE06-4EE43960DF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>MaxTutorialStage</t>
+  </si>
+  <si>
+    <t>TutorialStartX</t>
+  </si>
+  <si>
+    <t>TutorialStartZ</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -605,9 +611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -724,6 +732,22 @@
       </c>
       <c r="B14">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA6FBA-1409-4218-AE06-4EE43960DF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890292A7-0425-4647-AC35-FE8EE5ADD0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>MaxTutorialStage</t>
-  </si>
-  <si>
-    <t>TutorialStartX</t>
-  </si>
-  <si>
-    <t>TutorialStartZ</t>
   </si>
 </sst>
 </file>
@@ -611,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,22 +726,6 @@
       </c>
       <c r="B14">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890292A7-0425-4647-AC35-FE8EE5ADD0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED6424-E8E7-40CF-BBEC-5CE0A1808B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>MaxTutorialStage</t>
+  </si>
+  <si>
+    <t>TimeSecToGetOneEnergy</t>
+  </si>
+  <si>
+    <t>RequiredEnergyToPlay</t>
+  </si>
+  <si>
+    <t>RefillEnergyDiamond</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,6 +606,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED6424-E8E7-40CF-BBEC-5CE0A1808B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4BC5B-6F5B-44CF-9B76-CBBF8704011F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4BC5B-6F5B-44CF-9B76-CBBF8704011F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885F898-1D8B-424A-80CD-3AF95FDEEA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>RefillEnergyDiamond</t>
+  </si>
+  <si>
+    <t>SealMaxCount</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,6 +631,14 @@
       </c>
       <c r="B9">
         <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885F898-1D8B-424A-80CD-3AF95FDEEA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543190B-4181-4DCB-9B73-16A476BB6455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Actor011</t>
-  </si>
-  <si>
-    <t>MaxTutorialStage</t>
   </si>
   <si>
     <t>TimeSecToGetOneEnergy</t>
@@ -550,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,7 +603,7 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +611,7 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>576</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +619,7 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,14 +627,6 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
         <v>8</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543190B-4181-4DCB-9B73-16A476BB6455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C197E94-A1A5-4C2C-8BF2-DA201314DADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>value|Int</t>
-  </si>
-  <si>
-    <t>PurifyStartChapter</t>
   </si>
   <si>
     <t>ChaosChapterLimit</t>
@@ -547,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,15 +584,15 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +600,7 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>576</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +608,7 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,14 +616,6 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
         <v>8</v>
       </c>
     </row>
@@ -659,7 +648,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>73.989103869999994</v>
@@ -667,7 +656,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>-293.30309269999998</v>
@@ -675,7 +664,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>49.326069250000003</v>
@@ -683,7 +672,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>-127.1549435</v>
@@ -699,7 +688,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1.4999999999999999E-2</v>
@@ -789,10 +778,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +967,7 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +981,7 @@
         <v>0.5625</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C197E94-A1A5-4C2C-8BF2-DA201314DADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF756C-C021-4B25-8B50-D374D819FF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>SealMaxCount</t>
+  </si>
+  <si>
+    <t>PurifyMaxCount</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,6 +620,14 @@
       </c>
       <c r="B8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF756C-C021-4B25-8B50-D374D819FF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178DD3A-1AB2-4374-B99E-FD4D94A86B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -124,18 +124,6 @@
   </si>
   <si>
     <t>ChaosChapterLimit</t>
-  </si>
-  <si>
-    <t>LnHpConstant1</t>
-  </si>
-  <si>
-    <t>LnHpConstant2</t>
-  </si>
-  <si>
-    <t>LnAtkConstant1</t>
-  </si>
-  <si>
-    <t>LnAtkConstant2</t>
   </si>
   <si>
     <t>LanguageList</t>
@@ -549,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -592,7 +580,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>576</v>
@@ -600,7 +588,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -608,7 +596,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -616,7 +604,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -624,7 +612,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -638,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,105 +647,73 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>73.989103869999994</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>-293.30309269999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>49.326069250000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>-127.1549435</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
         <v>0.5</v>
       </c>
     </row>
@@ -789,10 +745,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +934,7 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +948,7 @@
         <v>0.5625</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178DD3A-1AB2-4374-B99E-FD4D94A86B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDE1D8-7B57-47E3-B86C-692AAC8A99C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDE1D8-7B57-47E3-B86C-692AAC8A99C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC836902-6A14-4CFB-A840-3C5BA57185DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>PurifyMaxCount</t>
+  </si>
+  <si>
+    <t>ReceiveTransferMaxEnhance</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,6 +619,14 @@
       </c>
       <c r="B9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC836902-6A14-4CFB-A840-3C5BA57185DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A043F-C436-4430-B535-F3D2DE401DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>ReceiveTransferMaxEnhance</t>
+  </si>
+  <si>
+    <t>LnEquipEnhance</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,6 +630,14 @@
       </c>
       <c r="B10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A043F-C436-4430-B535-F3D2DE401DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C6795-6791-418F-ADBC-5DCC9953E5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -126,12 +126,6 @@
     <t>ChaosChapterLimit</t>
   </si>
   <si>
-    <t>LanguageList</t>
-  </si>
-  <si>
-    <t>KOR,ENG</t>
-  </si>
-  <si>
     <t>overrideActorId|String</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>ReceiveTransferMaxEnhance</t>
-  </si>
-  <si>
-    <t>LnEquipEnhance</t>
   </si>
 </sst>
 </file>
@@ -541,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,7 +577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>576</v>
@@ -594,7 +585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -602,7 +593,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -610,7 +601,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -618,7 +609,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -626,18 +617,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +660,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1.4999999999999999E-2</v>
@@ -747,9 +730,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -763,14 +748,6 @@
       </c>
       <c r="B1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -816,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -844,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -942,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -956,7 +933,7 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -970,7 +947,7 @@
         <v>0.5625</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C6795-6791-418F-ADBC-5DCC9953E5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56532EE3-2F98-4D3F-94A6-0FF8DC89F666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -129,30 +129,15 @@
     <t>overrideActorId|String</t>
   </si>
   <si>
-    <t>Actor001</t>
-  </si>
-  <si>
     <t>MinimumCriticalRate</t>
   </si>
   <si>
-    <t>Actor025</t>
-  </si>
-  <si>
-    <t>Actor021</t>
-  </si>
-  <si>
     <t>1,0.5</t>
   </si>
   <si>
     <t>1,0.66,0.33</t>
   </si>
   <si>
-    <t>Actor019</t>
-  </si>
-  <si>
-    <t>Actor011</t>
-  </si>
-  <si>
     <t>TimeSecToGetOneEnergy</t>
   </si>
   <si>
@@ -169,6 +154,21 @@
   </si>
   <si>
     <t>ReceiveTransferMaxEnhance</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
+  </si>
+  <si>
+    <t>Actor3021</t>
+  </si>
+  <si>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>Actor3019</t>
+  </si>
+  <si>
+    <t>Actor2011</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>576</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1.4999999999999999E-2</v>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -760,12 +760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -807,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -835,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,7 +934,7 @@
         <v>0.75</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,7 +948,7 @@
         <v>0.5625</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56532EE3-2F98-4D3F-94A6-0FF8DC89F666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C53C1-0693-429F-B591-9D77D13BA021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -534,9 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -596,7 +594,7 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C53C1-0693-429F-B591-9D77D13BA021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63C063-61C4-4C90-8CDB-479CD62F3E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Actor2011</t>
+  </si>
+  <si>
+    <t>KoreaWon</t>
+  </si>
+  <si>
+    <t>￦</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -728,9 +734,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -746,6 +752,14 @@
       </c>
       <c r="B1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63C063-61C4-4C90-8CDB-479CD62F3E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E353F-D1E9-414C-BAE0-F0EB8A30E73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>￦</t>
+  </si>
+  <si>
+    <t>MaxResearchLevel</t>
   </si>
 </sst>
 </file>
@@ -538,9 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -565,65 +568,73 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>576</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
@@ -736,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D5FC1-6BFD-4414-8A0B-4D8B6A8A7BBB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E353F-D1E9-414C-BAE0-F0EB8A30E73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9F634-924A-4446-8EDD-4EBF2678538D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>MaxResearchLevel</t>
+  </si>
+  <si>
+    <t>SealBigCount</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,17 +627,25 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9F634-924A-4446-8EDD-4EBF2678538D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CEEBF-21FA-4FF8-85E2-78B98429B404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>SealBigCount</t>
+  </si>
+  <si>
+    <t>StatsResetDiamond</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +650,14 @@
       </c>
       <c r="B12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CEEBF-21FA-4FF8-85E2-78B98429B404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55ED363-0FF1-49C9-A65B-AFE0EA331450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>StatsResetDiamond</t>
+  </si>
+  <si>
+    <t>trainingGold</t>
+  </si>
+  <si>
+    <t>trainingDiamond</t>
+  </si>
+  <si>
+    <t>trainingMulti</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,6 +667,30 @@
       </c>
       <c r="B13">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55ED363-0FF1-49C9-A65B-AFE0EA331450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51978D5-B3F0-4234-90EC-0213B1AF6F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -186,13 +186,13 @@
     <t>StatsResetDiamond</t>
   </si>
   <si>
-    <t>trainingGold</t>
-  </si>
-  <si>
-    <t>trainingDiamond</t>
-  </si>
-  <si>
-    <t>trainingMulti</t>
+    <t>TrainingGold</t>
+  </si>
+  <si>
+    <t>TrainingDiamond</t>
+  </si>
+  <si>
+    <t>TrainingMulti</t>
   </si>
 </sst>
 </file>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51978D5-B3F0-4234-90EC-0213B1AF6F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4876111-1692-4949-8EB8-F7A41F2DDEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>TrainingMulti</t>
+  </si>
+  <si>
+    <t>WingsChange</t>
+  </si>
+  <si>
+    <t>WingsLook</t>
+  </si>
+  <si>
+    <t>WingsAbility</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,6 +700,30 @@
       </c>
       <c r="B16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4876111-1692-4949-8EB8-F7A41F2DDEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C171B9D3-822F-4B9C-B0DD-43823C993569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>WingsAbility</t>
+  </si>
+  <si>
+    <t>MaxNodeWarLevel</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,6 +727,14 @@
       </c>
       <c r="B19">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C171B9D3-822F-4B9C-B0DD-43823C993569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801769F-A712-4953-BB87-329DFF532929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>MaxNodeWarLevel</t>
+  </si>
+  <si>
+    <t>NodeWarHeal</t>
   </si>
 </sst>
 </file>
@@ -570,6 +573,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B20"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,185 +762,6 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -834,6 +835,14 @@
       </c>
       <c r="B10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801769F-A712-4953-BB87-329DFF532929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039C5E8-5615-4007-93BD-AE72E906D6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>NodeWarHeal</t>
+  </si>
+  <si>
+    <t>NodeWarRepeatBoost</t>
   </si>
 </sst>
 </file>
@@ -571,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -738,6 +743,14 @@
       </c>
       <c r="B20">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039C5E8-5615-4007-93BD-AE72E906D6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A919B-79E8-462C-8C25-488DF3AFE7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>NodeWarRepeatBoost</t>
+  </si>
+  <si>
+    <t>RefillBoostDiamond</t>
+  </si>
+  <si>
+    <t>RefillBoostCount</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,6 +757,22 @@
       </c>
       <c r="B21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A919B-79E8-462C-8C25-488DF3AFE7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F92221-7CCC-47E0-A13E-FF880533EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>RefillBoostCount</t>
+  </si>
+  <si>
+    <t>NodeWarManaDrop</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -783,9 +786,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -878,6 +881,14 @@
       </c>
       <c r="B11">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F92221-7CCC-47E0-A13E-FF880533EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82303837-3C91-496C-BDE4-C20F648E963C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -888,7 +890,7 @@
         <v>61</v>
       </c>
       <c r="B12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82303837-3C91-496C-BDE4-C20F648E963C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74B3C2-F99A-49B9-8786-1AAE706EB0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>RefillBoostCount</t>
-  </si>
-  <si>
-    <t>NodeWarManaDrop</t>
   </si>
 </sst>
 </file>
@@ -786,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,14 +880,6 @@
       </c>
       <c r="B11">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74B3C2-F99A-49B9-8786-1AAE706EB0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6469122-E437-469E-A3BE-E334374292E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>RefillBoostCount</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -926,9 +929,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1051,16 +1054,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,10 +1071,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1082,10 +1085,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1093,16 +1096,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.75</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,12 +1113,26 @@
         <v>8</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.5625</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6469122-E437-469E-A3BE-E334374292E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1374E-76CF-4664-B659-E3B0AEF5D5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Actor0037</t>
+  </si>
+  <si>
+    <t>1,0.71,0.5,0.38,0.25</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1059,8 +1064,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1374E-76CF-4664-B659-E3B0AEF5D5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A61406-04F3-4F96-A1C0-D96433E01348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -932,7 +932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,10 +1090,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1104,10 +1104,10 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1115,16 +1115,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.75</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,12 +1132,26 @@
         <v>8</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0.5625</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A61406-04F3-4F96-A1C0-D96433E01348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C4F00-A7E9-4D84-9899-7EB3CEA71A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -72,21 +72,6 @@
     <t>rate|Float!</t>
   </si>
   <si>
-    <t>1, 0.7</t>
-  </si>
-  <si>
-    <t>1, 0.7, 0.49</t>
-  </si>
-  <si>
-    <t>1, 0.7, 0.49, 0.23</t>
-  </si>
-  <si>
-    <t>1, 0.5</t>
-  </si>
-  <si>
-    <t>1, 0.5, 0.25</t>
-  </si>
-  <si>
     <t>1, 0.9</t>
   </si>
   <si>
@@ -223,6 +208,30 @@
   </si>
   <si>
     <t>1,0.71,0.5,0.38,0.25</t>
+  </si>
+  <si>
+    <t>1,0.9,0.8</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
+    <t>1,0.9,0.8,0.7,0.6</t>
+  </si>
+  <si>
+    <t>Actor1029</t>
+  </si>
+  <si>
+    <t>1,0.9</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>Actor1226</t>
+  </si>
+  <si>
+    <t>Actor2235</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +624,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -631,7 +640,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -639,7 +648,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>576</v>
@@ -647,7 +656,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -655,7 +664,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -663,7 +672,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -671,7 +680,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -679,7 +688,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -687,7 +696,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -695,7 +704,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -711,7 +720,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -719,7 +728,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -727,7 +736,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -735,7 +744,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -743,7 +752,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>25</v>
@@ -751,7 +760,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -759,7 +768,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -767,7 +776,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -775,7 +784,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -805,12 +814,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -818,7 +827,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1.4999999999999999E-2</v>
@@ -834,7 +843,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -842,7 +851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -850,7 +859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -858,7 +867,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -866,7 +875,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -874,7 +883,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -882,7 +891,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -918,10 +927,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -956,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,13 +987,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,27 +1001,27 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,35 +1091,35 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,41 +1127,83 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.75</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>0.5625</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
+      <c r="D18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C4F00-A7E9-4D84-9899-7EB3CEA71A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8CCB5-2233-43E8-AFF2-46167CA17C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8CCB5-2233-43E8-AFF2-46167CA17C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08897005-2E6C-4E3F-9940-F15D09AC04BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -210,15 +210,9 @@
     <t>1,0.71,0.5,0.38,0.25</t>
   </si>
   <si>
-    <t>1,0.9,0.8</t>
-  </si>
-  <si>
     <t>Actor2128</t>
   </si>
   <si>
-    <t>1,0.9,0.8,0.7,0.6</t>
-  </si>
-  <si>
     <t>Actor1029</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>Actor2235</t>
+  </si>
+  <si>
+    <t>1,0.82,0.67</t>
+  </si>
+  <si>
+    <t>1,0.85,0.72,0.61,0.52</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>0.75</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>0.5625</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08897005-2E6C-4E3F-9940-F15D09AC04BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57DE0F-55AD-4033-A1EC-DBCF44531C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>1,0.85,0.72,0.61,0.52</t>
+  </si>
+  <si>
+    <t>Actor3212</t>
+  </si>
+  <si>
+    <t>1,0.32,0.1,0.03</t>
   </si>
 </sst>
 </file>
@@ -941,11 +947,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1124,16 +1128,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,10 +1145,10 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
@@ -1155,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -1166,16 +1170,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0.75</v>
-      </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,12 +1201,26 @@
         <v>8</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.5625</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57DE0F-55AD-4033-A1EC-DBCF44531C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A89A-2944-4A26-8C5D-653ACABA1625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>1,0.32,0.1,0.03</t>
+  </si>
+  <si>
+    <t>1,0.78,0.6,0.47,0.36,0.28,0.22,0.17,0.13,0.1</t>
   </si>
 </sst>
 </file>
@@ -947,9 +950,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1142,30 +1147,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,10 +1178,10 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
@@ -1184,30 +1189,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.75</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,12 +1220,40 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.75</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A89A-2944-4A26-8C5D-653ACABA1625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC0C6D-A283-4464-9EB1-1E54AD8B57AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>1,0.78,0.6,0.47,0.36,0.28,0.22,0.17,0.13,0.1</t>
+  </si>
+  <si>
+    <t>1,0.71,0.5</t>
+  </si>
+  <si>
+    <t>Actor3231</t>
   </si>
 </sst>
 </file>
@@ -950,11 +956,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1175,16 +1179,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,10 +1196,10 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -1206,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -1217,16 +1221,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,12 +1252,26 @@
         <v>8</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC0C6D-A283-4464-9EB1-1E54AD8B57AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A558A-D5C9-461B-8EF1-5C4543C4D2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -75,12 +75,6 @@
     <t>1, 0.9</t>
   </si>
   <si>
-    <t>1, 0.9, 0.81</t>
-  </si>
-  <si>
-    <t>1, 0.9, 0.72, 0.5</t>
-  </si>
-  <si>
     <t>CollisionDamageInterval</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Actor3231</t>
+  </si>
+  <si>
+    <t>1,1.08,1.16,1.25</t>
+  </si>
+  <si>
+    <t>Actor2342</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>576</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>25</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -829,12 +829,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1.4999999999999999E-2</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +956,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,35 +1034,35 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,13 +1070,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,11 +1100,11 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,11 +1142,11 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>67</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,27 +1182,27 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1210,27 +1210,27 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,27 +1252,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A558A-D5C9-461B-8EF1-5C4543C4D2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E61A18-1C88-4478-8848-8D8A09A89806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>rate|Float!</t>
   </si>
   <si>
-    <t>1, 0.9</t>
-  </si>
-  <si>
     <t>CollisionDamageInterval</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Actor2342</t>
+  </si>
+  <si>
+    <t>1,0.4</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>576</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>25</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -829,12 +829,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1.4999999999999999E-2</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>0.75</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E61A18-1C88-4478-8848-8D8A09A89806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F477CF-09E4-48ED-A63A-D22D4361EC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,7 +642,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F477CF-09E4-48ED-A63A-D22D4361EC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6CE1D4-E7B7-4E80-93D5-A4D2DC05E86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6CE1D4-E7B7-4E80-93D5-A4D2DC05E86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C2F9A-1B9D-48EB-A426-B994A455E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -682,7 +680,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C2F9A-1B9D-48EB-A426-B994A455E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349428C4-817C-48D8-AA41-FF448C10FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>1,0.4</t>
+  </si>
+  <si>
+    <t>TranscendGoldOne</t>
+  </si>
+  <si>
+    <t>TranscendGoldTwo</t>
+  </si>
+  <si>
+    <t>TranscendGoldThree</t>
   </si>
 </sst>
 </file>
@@ -610,9 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -801,6 +812,30 @@
       </c>
       <c r="B23">
         <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349428C4-817C-48D8-AA41-FF448C10FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B94C78-B4DC-41F0-850F-6E5EF27168CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>TranscendGoldThree</t>
+  </si>
+  <si>
+    <t>BalanceGoldOnce</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -836,6 +839,14 @@
       </c>
       <c r="B26">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B94C78-B4DC-41F0-850F-6E5EF27168CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7E56E-62FA-473A-8186-DD555C65C187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>BalanceGoldOnce</t>
+  </si>
+  <si>
+    <t>BalancePowerPointsDay</t>
+  </si>
+  <si>
+    <t>BalancePowerPointsDiamond</t>
   </si>
 </sst>
 </file>
@@ -622,11 +628,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -847,6 +851,22 @@
       </c>
       <c r="B27">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7E56E-62FA-473A-8186-DD555C65C187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B9FD1-6198-41B4-B375-A1AB2DEEBCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -630,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -858,7 +860,7 @@
         <v>75</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +868,7 @@
         <v>76</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B9FD1-6198-41B4-B375-A1AB2DEEBCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14895CB-1626-45D6-BD30-B59330010930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -630,9 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -740,7 +738,7 @@
         <v>41</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +746,7 @@
         <v>42</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +754,7 @@
         <v>43</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +762,7 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14895CB-1626-45D6-BD30-B59330010930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084CB0F-C5C1-43DF-BEB9-5C751409CA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -778,7 +780,7 @@
         <v>46</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +788,7 @@
         <v>47</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084CB0F-C5C1-43DF-BEB9-5C751409CA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2324A-FC22-4F6F-9F9F-14F937CAB406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -630,9 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -796,7 +794,7 @@
         <v>48</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +818,7 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2324A-FC22-4F6F-9F9F-14F937CAB406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2520E5A-3500-424A-A621-970E66B10C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>BalancePowerPointsDiamond</t>
+  </si>
+  <si>
+    <t>MaxEquipLevel</t>
   </si>
 </sst>
 </file>
@@ -628,9 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -671,201 +676,209 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>576</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>10000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>15</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2520E5A-3500-424A-A621-970E66B10C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5CBBB8-FD83-4CFC-A489-90E09288A741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>1,1.08,1.16,1.25</t>
   </si>
   <si>
-    <t>Actor2342</t>
-  </si>
-  <si>
     <t>1,0.4</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>MaxEquipLevel</t>
+  </si>
+  <si>
+    <t>Actor3242</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -676,7 +676,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>20000</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>30000</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5CBBB8-FD83-4CFC-A489-90E09288A741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DCBBC-E03C-4CFD-B810-0633C554FE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Actor3242</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,11 +1236,11 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -1273,41 +1276,41 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1329,12 +1332,26 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DCBBC-E03C-4CFD-B810-0633C554FE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF921ABE-B442-4EF9-9C77-6C56BB12934E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>1,0.78,0.6,0.47,0.36,0.28,0.22,0.17,0.13,0.1</t>
   </si>
   <si>
-    <t>1,0.71,0.5</t>
-  </si>
-  <si>
     <t>Actor3231</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Actor1109</t>
+  </si>
+  <si>
+    <t>1,0.6,0.4</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>20000</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>30000</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF921ABE-B442-4EF9-9C77-6C56BB12934E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC532C7-B262-4243-80AD-8F7E9B3B882F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Actor3212</t>
   </si>
   <si>
-    <t>1,0.32,0.1,0.03</t>
-  </si>
-  <si>
     <t>1,0.78,0.6,0.47,0.36,0.28,0.22,0.17,0.13,0.1</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>1,0.6,0.4</t>
+  </si>
+  <si>
+    <t>1,0.32,0</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>20000</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>30000</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC532C7-B262-4243-80AD-8F7E9B3B882F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3320B9-39CF-4B81-81AA-EE18AACA750D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>1,0.32,0</t>
+  </si>
+  <si>
+    <t>Actor1218</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1250,11 +1253,11 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>78</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1276,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -1290,41 +1293,41 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1346,12 +1349,26 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0.75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3320B9-39CF-4B81-81AA-EE18AACA750D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCEBE3-83AE-41B2-867E-6924930958DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Actor1218</t>
+  </si>
+  <si>
+    <t>NodeWarSpHeal</t>
   </si>
 </sst>
 </file>
@@ -896,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -993,6 +996,14 @@
       </c>
       <c r="B11">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCEBE3-83AE-41B2-867E-6924930958DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC2B6F-8436-4A9A-AD7A-CABD1BD45326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,7 +872,7 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>72</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC2B6F-8436-4A9A-AD7A-CABD1BD45326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67810E94-5060-4060-B1DF-45F5BA2C38A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,7 +872,7 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67810E94-5060-4060-B1DF-45F5BA2C38A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC56EF3-6FB1-40F4-946A-11A8944C7226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>NodeWarSpHeal</t>
+  </si>
+  <si>
+    <t>ExtendPeriodShopOne</t>
+  </si>
+  <si>
+    <t>ExtendPeriodShopTwo</t>
+  </si>
+  <si>
+    <t>ExtendPeriodShopThree</t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -889,6 +898,30 @@
       </c>
       <c r="B30">
         <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC56EF3-6FB1-40F4-946A-11A8944C7226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C39BA3-92A2-4B53-9540-44F89978832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>ExtendPeriodShopThree</t>
+  </si>
+  <si>
+    <t>NodeWarAgainDiamond</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -854,73 +857,81 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>100</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C39BA3-92A2-4B53-9540-44F89978832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10197B48-06AC-46AA-AC0B-A46457AD7AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>NodeWarAgainDiamond</t>
+  </si>
+  <si>
+    <t>SubQuestGoldDoubleDiamond</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -844,7 +847,7 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,6 +936,14 @@
       </c>
       <c r="B34">
         <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10197B48-06AC-46AA-AC0B-A46457AD7AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398E03A-54D5-46AA-BC26-185F85EB1A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>43</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>46</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +823,7 @@
         <v>47</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398E03A-54D5-46AA-BC26-185F85EB1A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328532EB-6633-46F3-A4DF-6EF4D1355171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -657,9 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -716,47 +714,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>576</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -764,98 +762,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>2500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>35</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328532EB-6633-46F3-A4DF-6EF4D1355171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181DB5B-590C-4707-8871-EB79907C00ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -690,58 +690,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181DB5B-590C-4707-8871-EB79907C00ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA351778-9E76-4072-AAFA-7295B4C67FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>1,0.6,0.4</t>
   </si>
   <si>
-    <t>1,0.32,0</t>
-  </si>
-  <si>
     <t>Actor1218</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
+  </si>
+  <si>
+    <t>1,0.32,0.1</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -858,7 +858,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -1105,7 +1105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1321,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA351778-9E76-4072-AAFA-7295B4C67FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3CE6B-2E04-4EE9-8C9B-0830544ED56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -1103,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1359,41 +1359,41 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,26 +1415,12 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0.75</v>
-      </c>
-      <c r="D23" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3CE6B-2E04-4EE9-8C9B-0830544ED56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D52B1-3DA7-491F-9C85-F7B94F860D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Actor3212</t>
   </si>
   <si>
-    <t>1,0.78,0.6,0.47,0.36,0.28,0.22,0.17,0.13,0.1</t>
-  </si>
-  <si>
     <t>Actor3231</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>1,0.32,0.1</t>
+  </si>
+  <si>
+    <t>1,0.46,0.21,0.1</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>10000</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>20000</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>30000</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>70</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>25</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -1105,9 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1194,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1267,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1348,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
@@ -1362,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D52B1-3DA7-491F-9C85-F7B94F860D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268A5AD8-D8FE-415E-A4BA-8985A56F44EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -837,7 +839,7 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +847,7 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +855,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +863,7 @@
         <v>82</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +911,7 @@
         <v>72</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C64605-056A-4FEA-8334-385AFFA75F0F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268A5AD8-D8FE-415E-A4BA-8985A56F44EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55488C1B-11E7-4D8F-98ED-14E5984E8950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>1,0.46,0.21,0.1</t>
+  </si>
+  <si>
+    <t>MaxGuideQuestId</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -944,6 +947,14 @@
       </c>
       <c r="B35">
         <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55488C1B-11E7-4D8F-98ED-14E5984E8950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FBE845-4DB1-41A6-BF15-5C373EBA2E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -954,7 +954,7 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FBE845-4DB1-41A6-BF15-5C373EBA2E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288DA01-27E3-40D3-AFCE-63FBE017CEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288DA01-27E3-40D3-AFCE-63FBE017CEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7A350-844A-48C1-90E6-5DB570634E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -954,7 +954,7 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7A350-844A-48C1-90E6-5DB570634E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC88FDF-4747-4E0B-9486-A04D9D5AB3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -954,7 +954,7 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC88FDF-4747-4E0B-9486-A04D9D5AB3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9266E-9EDA-47F5-80AE-837BCC15C451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>MaxGuideQuestId</t>
+  </si>
+  <si>
+    <t>RequiredEnergyToBoss</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -767,193 +770,201 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>200</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9266E-9EDA-47F5-80AE-837BCC15C451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905ACEF1-9B61-48BB-8BBC-7FD2D2AE47CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>RequiredEnergyToBoss</t>
+  </si>
+  <si>
+    <t>MaxBossBattleLevel</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -754,23 +757,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>576</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -778,193 +781,201 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>200</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905ACEF1-9B61-48BB-8BBC-7FD2D2AE47CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307A7A5-CB93-466B-98FA-557919DC8819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>MaxBossBattleLevel</t>
+  </si>
+  <si>
+    <t>InvasionDiamond</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -977,6 +980,14 @@
       </c>
       <c r="B38">
         <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307A7A5-CB93-466B-98FA-557919DC8819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C629C384-31AE-4301-A25E-EE1EB737F7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>InvasionDiamond</t>
+  </si>
+  <si>
+    <t>MaxAnalysisLevel</t>
   </si>
 </sst>
 </file>
@@ -667,11 +670,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -768,23 +769,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>576</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -792,201 +793,209 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B28">
-        <v>10000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>5</v>
       </c>
     </row>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C629C384-31AE-4301-A25E-EE1EB737F7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF4917-C104-4BFA-83CF-143DD7FE0DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>MaxAnalysisLevel</t>
+  </si>
+  <si>
+    <t>ExtendChaosShopOne</t>
+  </si>
+  <si>
+    <t>ExtendChaosShopTwo</t>
   </si>
 </sst>
 </file>
@@ -670,9 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -997,6 +1005,22 @@
       </c>
       <c r="B40">
         <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF4917-C104-4BFA-83CF-143DD7FE0DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3079E-1AF9-4ADD-B094-98365BEF6E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>ExtendChaosShopTwo</t>
+  </si>
+  <si>
+    <t>ChaosFragmentMax</t>
+  </si>
+  <si>
+    <t>ChaosPowerPointsCost</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1021,6 +1027,22 @@
       </c>
       <c r="B42">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3079E-1AF9-4ADD-B094-98365BEF6E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DCFCC-F927-427F-8DAE-61C3E7DC3E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,7 +786,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DCFCC-F927-427F-8DAE-61C3E7DC3E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD8E22-4FD2-4637-9138-3A7DDF586AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD8E22-4FD2-4637-9138-3A7DDF586AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9D40E-2A98-445E-BEBD-B58E35CB760B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9D40E-2A98-445E-BEBD-B58E35CB760B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E710A4-AE59-4289-A348-C4806BC3578E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1002,7 @@
         <v>86</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E710A4-AE59-4289-A348-C4806BC3578E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7361E85-ECBB-4E42-BEAA-23BD4C9F7C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -684,377 +684,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1069,6 +698,375 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1109,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7361E85-ECBB-4E42-BEAA-23BD4C9F7C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9833730-8AEE-476D-97AD-778256A84BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1107,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9833730-8AEE-476D-97AD-778256A84BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D355B-72C8-416D-A58D-0BE487DFF66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>ChaosPowerPointsCost</t>
+  </si>
+  <si>
+    <t>ShowRankLimit</t>
   </si>
 </sst>
 </file>
@@ -682,9 +685,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1045,6 +1048,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1055,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D355B-72C8-416D-A58D-0BE487DFF66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666E394-0133-4EA9-8356-45BA13D8AF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -687,385 +687,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1080,6 +701,383 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1120,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666E394-0133-4EA9-8356-45BA13D8AF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C7CDF-381C-49A4-9698-118D260A1EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1005,7 @@
         <v>86</v>
       </c>
       <c r="B39">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C7CDF-381C-49A4-9698-118D260A1EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FFA671-78C3-4B12-95A7-A1830BEF95AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
         <v>86</v>
       </c>
       <c r="B39">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FFA671-78C3-4B12-95A7-A1830BEF95AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC31C3-FBC2-4EE2-9A96-15C0514F6284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC31C3-FBC2-4EE2-9A96-15C0514F6284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A306E6-E6DB-4DD8-8C98-1C570C3F28A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -322,6 +322,21 @@
   </si>
   <si>
     <t>ShowRankLimit</t>
+  </si>
+  <si>
+    <t>DefaultEnhanceLimit</t>
+  </si>
+  <si>
+    <t>Over21EnhanceLimit</t>
+  </si>
+  <si>
+    <t>Over14EnhanceLimit</t>
+  </si>
+  <si>
+    <t>Over7EnhanceLimit</t>
+  </si>
+  <si>
+    <t>DarkModeHealScreenLight</t>
   </si>
 </sst>
 </file>
@@ -685,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -725,7 +740,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,6 +1069,38 @@
       </c>
       <c r="B45">
         <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1064,9 +1111,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34769A5-C368-4A5A-B8DE-2FA85EFEC3A4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1167,6 +1216,14 @@
       </c>
       <c r="B12">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A306E6-E6DB-4DD8-8C98-1C570C3F28A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50DEEB-461D-42EF-AAC4-04F07845E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>MaxStageLevel</t>
   </si>
@@ -740,7 +740,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>96</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>99</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50DEEB-461D-42EF-AAC4-04F07845E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E69C54B-D354-4C17-A3E8-C072F1FE5D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E69C54B-D354-4C17-A3E8-C072F1FE5D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5C13D-1210-4E43-9DC5-F4BD89EE59AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GlobalConstantStringTable" sheetId="4" r:id="rId3"/>
     <sheet name="DamageRateTable" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -748,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5C13D-1210-4E43-9DC5-F4BD89EE59AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA0ADD-C9F2-421B-B1AB-9135018CE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -705,9 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -751,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA0ADD-C9F2-421B-B1AB-9135018CE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB69DC-FFE6-44B1-8A77-678D9E330743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB69DC-FFE6-44B1-8A77-678D9E330743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEE25A-0E3E-46AC-8AA6-49A71FAC3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BB9F1B-6CB9-4C59-8005-03A25A60D336}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -749,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEE25A-0E3E-46AC-8AA6-49A71FAC3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B3C72-8BAA-4CF5-B5CB-4B0E2CBE6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B3C72-8BAA-4CF5-B5CB-4B0E2CBE6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2196865-B92A-4F90-A3A1-E7439E4822D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2196865-B92A-4F90-A3A1-E7439E4822D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3472F-26FE-4981-BA60-EEBCD4E7A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3472F-26FE-4981-BA60-EEBCD4E7A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A85B6-7BD4-4EAF-873D-6A86F31019B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A85B6-7BD4-4EAF-873D-6A86F31019B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486416B1-CFA5-4832-9B9F-4847F9146D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486416B1-CFA5-4832-9B9F-4847F9146D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B915E-66BA-4F03-B872-04A15C46CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B915E-66BA-4F03-B872-04A15C46CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC7CF3-966F-447D-90D4-037A7120F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC7CF3-966F-447D-90D4-037A7120F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8AB31-414D-4229-B70D-F2C005307FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/GlobalConstant.xlsx
+++ b/Excel/GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8AB31-414D-4229-B70D-F2C005307FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E866FE6-3510-435E-9A20-A4FF0A410C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D719337-7574-466E-8B01-73E036BA373F}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1023,7 @@
         <v>86</v>
       </c>
       <c r="B39">
-        <v>1100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
